--- a/design/小程序/配置表/旅游数值设定.xlsx
+++ b/design/小程序/配置表/旅游数值设定.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\design\小程序\配置表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础设定" sheetId="15" r:id="rId1"/>
     <sheet name="数值设定" sheetId="16" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -503,11 +498,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,24 +986,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
@@ -1019,7 +1014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1033,7 +1028,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1056,7 +1051,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1065,7 +1060,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1074,7 +1069,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1085,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1102,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
@@ -1119,7 +1114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
@@ -1136,7 +1131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1148,7 +1143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -1159,7 +1154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
@@ -1173,7 +1168,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1184,7 +1179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" s="5" t="s">
         <v>95</v>
       </c>
@@ -1195,18 +1190,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="5">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
@@ -1217,7 +1212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
@@ -1228,7 +1223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
@@ -1239,7 +1234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
@@ -1257,26 +1252,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="J1" s="13" t="s">
         <v>47</v>
       </c>
@@ -1294,7 +1289,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1344,7 +1339,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1388,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -1451,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1511,7 +1506,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="B6" s="6" t="s">
         <v>38</v>
       </c>
@@ -1571,7 +1566,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1601,7 +1596,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1631,7 +1626,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1650,7 +1645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1661,7 +1656,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1674,7 +1669,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1688,7 +1683,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23">
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1704,7 +1699,7 @@
         <v>12000.000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="13.5" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>50</v>
       </c>
@@ -1712,30 +1707,30 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="8" t="s">
         <v>55</v>
@@ -1747,7 +1742,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
@@ -1756,7 +1751,7 @@
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="B23" s="6" t="s">
         <v>84</v>
       </c>
@@ -1767,7 +1762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
@@ -1778,18 +1773,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="B27" s="9">
         <f>ROUND(D23*C23-D24*C24,0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -1800,7 +1795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="B30" s="6" t="str">
         <f>B2&amp;"每日点亮景点积分"</f>
         <v>大R每日点亮景点积分</v>
@@ -1810,7 +1805,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" s="6" t="str">
         <f>B2&amp;"每日获得新明信片积分"</f>
         <v>大R每日获得新明信片积分</v>
@@ -1820,7 +1815,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="B32" s="6" t="str">
         <f>B2&amp;"每日触发事件积分"</f>
         <v>大R每日触发事件积分</v>
@@ -1830,7 +1825,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="B33" s="6" t="str">
         <f>B2&amp;"每日总积分"</f>
         <v>大R每日总积分</v>
@@ -1843,17 +1838,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="B36" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="16.5">
       <c r="B37" s="10" t="s">
         <v>60</v>
       </c>
@@ -1864,7 +1859,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16.5">
       <c r="B38" s="11">
         <v>1</v>
       </c>
@@ -1875,7 +1870,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16.5">
       <c r="B39" s="11">
         <v>2</v>
       </c>
@@ -1886,7 +1881,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16.5">
       <c r="B40" s="11">
         <v>3</v>
       </c>
@@ -1897,7 +1892,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16.5">
       <c r="B41" s="11">
         <v>4</v>
       </c>
@@ -1908,7 +1903,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16.5">
       <c r="B42" s="11">
         <v>5</v>
       </c>
@@ -1919,7 +1914,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16.5">
       <c r="B43" s="11">
         <v>6</v>
       </c>
@@ -1930,7 +1925,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16.5">
       <c r="B44" s="11">
         <v>7</v>
       </c>
@@ -1941,7 +1936,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16.5">
       <c r="B45" s="11">
         <v>8</v>
       </c>
@@ -1952,7 +1947,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16.5">
       <c r="B46" s="11">
         <v>9</v>
       </c>
@@ -1963,7 +1958,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="16.5">
       <c r="B47" s="11">
         <v>10</v>
       </c>
@@ -1974,7 +1969,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="16.5">
       <c r="B48" s="11">
         <v>20</v>
       </c>
@@ -1985,7 +1980,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16.5">
       <c r="B49" s="11">
         <v>100</v>
       </c>
@@ -1996,7 +1991,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="16.5">
       <c r="B50" s="11">
         <v>300</v>
       </c>
@@ -2007,7 +2002,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16.5">
       <c r="B51" s="11">
         <v>1000</v>
       </c>
@@ -2018,17 +2013,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="B54" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -2039,7 +2034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="B57" s="6" t="str">
         <f>B2&amp;"点亮1个城市所需时间"</f>
         <v>大R点亮1个城市所需时间</v>
@@ -2049,7 +2044,7 @@
         <v>2.9999999999999991</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="B58" s="6" t="str">
         <f>B2&amp;"走遍1个城市景点时间"</f>
         <v>大R走遍1个城市景点时间</v>
@@ -2059,7 +2054,7 @@
         <v>5.9999999999999982</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="B59" s="6" t="str">
         <f>B2&amp;"点亮中国所需时间"</f>
         <v>大R点亮中国所需时间</v>
@@ -2073,7 +2068,7 @@
         <v>等于42天</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -2085,7 +2080,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="B62" s="6" t="s">
         <v>67</v>
       </c>
@@ -2094,7 +2089,7 @@
         <v>225.00000000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="B63" s="6" t="s">
         <v>68</v>
       </c>
@@ -2104,7 +2099,7 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="B64" s="6" t="s">
         <v>85</v>
       </c>
@@ -2113,7 +2108,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="B65" s="6" t="s">
         <v>109</v>
       </c>
@@ -2122,7 +2117,7 @@
         <v>910.00000000000023</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="B67" s="4" t="s">
         <v>99</v>
       </c>
@@ -2130,7 +2125,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="B68" s="6" t="s">
         <v>70</v>
       </c>
@@ -2141,7 +2136,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="B69" s="6" t="s">
         <v>101</v>
       </c>
@@ -2152,7 +2147,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="B70" s="6" t="s">
         <v>102</v>
       </c>
@@ -2163,7 +2158,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="B71" s="6" t="s">
         <v>103</v>
       </c>
@@ -2174,29 +2169,29 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="B72" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C72" s="5">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="B73" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C73" s="5">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="D73" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
@@ -2207,7 +2202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="16.5">
       <c r="B76" s="11">
         <v>1</v>
       </c>
@@ -2215,7 +2210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="16.5">
       <c r="B77" s="11">
         <v>2</v>
       </c>
@@ -2223,7 +2218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="16.5">
       <c r="B78" s="11">
         <v>3</v>
       </c>
@@ -2231,7 +2226,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="16.5">
       <c r="B79" s="11">
         <v>4</v>
       </c>
@@ -2239,7 +2234,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="16.5">
       <c r="B80" s="11">
         <v>5</v>
       </c>
@@ -2247,7 +2242,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" ht="16.5">
       <c r="B81" s="11">
         <v>6</v>
       </c>
@@ -2255,7 +2250,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" ht="16.5">
       <c r="B82" s="11">
         <v>7</v>
       </c>
@@ -2263,7 +2258,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3">
       <c r="B84" s="1" t="s">
         <v>74</v>
       </c>
@@ -2278,7 +2273,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>$J$3:$J$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/design/小程序/配置表/旅游数值设定.xlsx
+++ b/design/小程序/配置表/旅游数值设定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础设定" sheetId="15" r:id="rId1"/>
@@ -396,19 +396,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,29 +453,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -499,6 +469,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -506,7 +483,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,30 +505,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -552,15 +520,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,10 +535,41 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,21 +581,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,25 +630,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,13 +714,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,139 +744,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,21 +834,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -870,44 +848,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,6 +880,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -937,6 +906,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -945,10 +938,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,133 +950,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,41 +1084,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1137,10 +1130,10 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1494,7 +1487,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1578,7 +1571,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
@@ -1765,7 +1758,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15:E18"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1865,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="16">
         <v>0</v>
@@ -1928,7 +1921,7 @@
         <v>800</v>
       </c>
       <c r="P4" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="16">
         <v>0</v>
@@ -1988,7 +1981,7 @@
         <v>800</v>
       </c>
       <c r="P5" s="16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="16">
         <v>800</v>
@@ -2048,7 +2041,7 @@
         <v>1500</v>
       </c>
       <c r="P6" s="16">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="16">
         <v>3500</v>
@@ -2085,7 +2078,7 @@
       </c>
       <c r="E7" s="4">
         <f>基础设定!$C$8*VLOOKUP($B$2,$J$3:$P$6,7,FALSE)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -2220,7 +2213,7 @@
       </c>
       <c r="E13" s="4">
         <f>E$5+E$6+E$7</f>
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="J13" t="s">
         <v>73</v>
@@ -2649,7 +2642,7 @@
       </c>
       <c r="C64" s="4">
         <f>ROUND((基础设定!$C$8-5)/500*30*(VLOOKUP($B$2,$J$3:$V$6,7,FALSE)-2),0)</f>
-        <v>0</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="65" spans="2:3">
@@ -2658,7 +2651,7 @@
       </c>
       <c r="C65" s="4">
         <f>SUM(C62:C64)</f>
-        <v>0</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="67" spans="2:3">

--- a/design/小程序/配置表/旅游数值设定.xlsx
+++ b/design/小程序/配置表/旅游数值设定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础设定" sheetId="15" r:id="rId1"/>
@@ -395,11 +395,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -453,16 +453,61 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,22 +520,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,7 +561,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,63 +576,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,17 +590,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,19 +630,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,156 +805,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,17 +833,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,6 +853,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,26 +900,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -930,6 +919,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -938,10 +938,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,133 +950,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1758,7 +1758,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
